--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,247 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.189466</v>
+      </c>
+      <c r="I2">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J2">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1.021610666666667</v>
+      </c>
+      <c r="N2">
+        <v>3.064832</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.06452016219022222</v>
+      </c>
+      <c r="R2">
+        <v>0.580681459712</v>
+      </c>
+      <c r="S2">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="T2">
+        <v>0.08692959137136655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.028136</v>
+      </c>
+      <c r="H3">
+        <v>0.084408</v>
+      </c>
+      <c r="I3">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J3">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.021610666666667</v>
+      </c>
+      <c r="N3">
+        <v>3.064832</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.02874403771733333</v>
+      </c>
+      <c r="R3">
+        <v>0.258696339456</v>
+      </c>
+      <c r="S3">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="T3">
+        <v>0.03872754451180849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.073382</v>
+      </c>
+      <c r="H4">
+        <v>0.220146</v>
+      </c>
+      <c r="I4">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J4">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.021610666666667</v>
+      </c>
+      <c r="N4">
+        <v>3.064832</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.07496783394133334</v>
+      </c>
+      <c r="R4">
+        <v>0.6747105054720001</v>
+      </c>
+      <c r="S4">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="T4">
+        <v>0.1010059948594516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.553248197479317</v>
-      </c>
-      <c r="H2">
-        <v>0.553248197479317</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.868002769726173</v>
-      </c>
-      <c r="N2">
-        <v>0.868002769726173</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.4802209677580598</v>
-      </c>
-      <c r="R2">
-        <v>0.4802209677580598</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.685514</v>
+      </c>
+      <c r="I5">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J5">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.021610666666667</v>
+      </c>
+      <c r="N5">
+        <v>3.064832</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.5739796937386666</v>
+      </c>
+      <c r="R5">
+        <v>5.165817243648</v>
+      </c>
+      <c r="S5">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="T5">
+        <v>0.7733368692573734</v>
       </c>
     </row>
   </sheetData>
